--- a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/PM演習_外部設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oki\Documents\PM演習2016　矢吹研A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="732" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="111">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1340,6 +1340,9 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>低</t>
+  </si>
 </sst>
 </file>
 
@@ -1981,6 +1984,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2071,7 +2077,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2080,19 +2092,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2104,14 +2113,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -39698,10 +39701,10 @@
       <c r="O1" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="55">
+      <c r="P1" s="56">
         <v>42523</v>
       </c>
-      <c r="Q1" s="56"/>
+      <c r="Q1" s="57"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
@@ -39718,11 +39721,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="36"/>
@@ -39767,17 +39770,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -39788,15 +39791,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6"/>
@@ -39807,15 +39810,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -39863,19 +39866,19 @@
       <c r="A10" s="36"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="37"/>
@@ -39884,17 +39887,17 @@
       <c r="A11" s="36"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="37"/>
@@ -39903,17 +39906,17 @@
       <c r="A12" s="36"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="37"/>
@@ -39923,17 +39926,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -39944,15 +39947,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -39963,15 +39966,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -39982,15 +39985,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -40001,15 +40004,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -40040,15 +40043,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
       <c r="M19" s="33"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -40061,13 +40064,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="33"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="33"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -40080,13 +40083,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
       <c r="M21" s="33"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -40099,13 +40102,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
       <c r="M22" s="33"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -40118,13 +40121,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="33"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
       <c r="M23" s="33"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -40137,13 +40140,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="33"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="33"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -40156,13 +40159,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
       <c r="M25" s="33"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -40175,13 +40178,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="33"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -40237,14 +40240,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="69" t="s">
+      <c r="K29" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="72"/>
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -40258,18 +40261,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="57" t="s">
+      <c r="K30" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58" t="s">
+      <c r="L30" s="59"/>
+      <c r="M30" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58" t="s">
+      <c r="N30" s="59"/>
+      <c r="O30" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="P30" s="63"/>
+      <c r="P30" s="64"/>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -40283,12 +40286,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="64"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="65"/>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -40302,12 +40305,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="64"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="65"/>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -40321,12 +40324,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="64"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="65"/>
       <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -40340,12 +40343,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="64"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="65"/>
       <c r="Q34" s="37"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -40359,12 +40362,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="64"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="65"/>
       <c r="Q35" s="37"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -40378,12 +40381,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="65"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="66"/>
       <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -40453,26 +40456,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="str">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="str">
         <f>表紙_外部!D10</f>
         <v>コンビニ弁当情報サイト開発</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="50" t="s">
         <v>2</v>
       </c>
@@ -41201,26 +41204,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="str">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="str">
         <f>表紙_外部!D10</f>
         <v>コンビニ弁当情報サイト開発</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="54" t="s">
         <v>2</v>
       </c>
@@ -41949,26 +41952,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="str">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="str">
         <f>表紙_外部!D10</f>
         <v>コンビニ弁当情報サイト開発</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -42271,7 +42274,7 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="55" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="3"/>
@@ -42737,8 +42740,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:L44"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -42753,26 +42756,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="str">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="str">
         <f>表紙_外部!D10</f>
         <v>コンビニ弁当情報サイト開発</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -42875,20 +42878,20 @@
       <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="87" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="87" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="88"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="92"/>
       <c r="M7" s="27" t="s">
         <v>22</v>
       </c>
@@ -42910,20 +42913,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="85" t="s">
+      <c r="F8" s="89"/>
+      <c r="G8" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="85" t="s">
+      <c r="H8" s="89"/>
+      <c r="I8" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="86"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="22" t="s">
         <v>25</v>
       </c>
@@ -42946,20 +42949,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="85" t="s">
+      <c r="F9" s="89"/>
+      <c r="G9" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="85" t="s">
+      <c r="H9" s="89"/>
+      <c r="I9" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="86"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="22" t="s">
         <v>69</v>
       </c>
@@ -42982,18 +42985,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="85" t="s">
+      <c r="E10" s="87"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="85" t="s">
+      <c r="H10" s="89"/>
+      <c r="I10" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="86"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="22" t="s">
         <v>69</v>
       </c>
@@ -43016,18 +43019,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="85" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="85" t="s">
+      <c r="H11" s="89"/>
+      <c r="I11" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="86"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="22" t="s">
         <v>84</v>
       </c>
@@ -43050,20 +43053,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="85" t="s">
+      <c r="F12" s="89"/>
+      <c r="G12" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="85" t="s">
+      <c r="H12" s="89"/>
+      <c r="I12" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="86"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="22" t="s">
         <v>25</v>
       </c>
@@ -43086,30 +43089,30 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="85" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="85" t="s">
+      <c r="H13" s="89"/>
+      <c r="I13" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="86"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="22" t="s">
         <v>90</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="O13" s="22" t="s">
         <v>26</v>
       </c>
       <c r="P13" s="9">
         <f>IF(N13="",0,IF(O13="",0,IF(N13="低",$N$24,IF(N13="中",$N$25,$N$26))*IF(O13="小",$O$24,IF(O13="中",$O$25,$O$26))))</f>
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -43120,32 +43123,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="85" t="s">
+      <c r="F14" s="89"/>
+      <c r="G14" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="86"/>
-      <c r="I14" s="85" t="s">
+      <c r="H14" s="89"/>
+      <c r="I14" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="86"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="22" t="s">
         <v>68</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="O14" s="22" t="s">
         <v>78</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -43156,30 +43159,30 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="85" t="s">
+      <c r="E15" s="87"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="85" t="s">
+      <c r="H15" s="89"/>
+      <c r="I15" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="86"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="22" t="s">
         <v>68</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>26</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -43190,14 +43193,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -43214,14 +43217,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -43238,14 +43241,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -43262,14 +43265,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -43286,14 +43289,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -43310,14 +43313,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -43331,14 +43334,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="30" t="s">
@@ -43346,7 +43349,7 @@
       </c>
       <c r="P22" s="9">
         <f>SUM(P8:P21)</f>
-        <v>2370</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
@@ -43676,41 +43679,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -43727,6 +43695,41 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -43772,26 +43775,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="str">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="str">
         <f>表紙_外部!D10</f>
         <v>コンビニ弁当情報サイト開発</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -43872,21 +43875,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="87" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="97" t="s">
+      <c r="F6" s="92"/>
+      <c r="G6" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>41</v>
@@ -43898,21 +43901,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94" t="s">
+      <c r="D7" s="95"/>
+      <c r="E7" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -43922,21 +43925,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94" t="s">
+      <c r="D8" s="95"/>
+      <c r="E8" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -43946,21 +43949,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96" t="s">
+      <c r="F9" s="97"/>
+      <c r="G9" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -43970,21 +43973,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94" t="s">
+      <c r="D10" s="95"/>
+      <c r="E10" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96" t="s">
+      <c r="F10" s="97"/>
+      <c r="G10" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -43994,21 +43997,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94" t="s">
+      <c r="D11" s="95"/>
+      <c r="E11" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="96" t="s">
+      <c r="F11" s="97"/>
+      <c r="G11" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -44018,15 +44021,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -44036,15 +44039,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -44054,15 +44057,15 @@
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>42</v>
@@ -44074,15 +44077,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -44526,16 +44529,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E8:F8"/>
@@ -44551,14 +44552,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -44593,26 +44596,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="str">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="str">
         <f>表紙_外部!D10</f>
         <v>コンビニ弁当情報サイト開発</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="52" t="s">
         <v>2</v>
       </c>
@@ -45341,26 +45344,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="str">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="str">
         <f>表紙_外部!D10</f>
         <v>コンビニ弁当情報サイト開発</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="54" t="s">
         <v>2</v>
       </c>
@@ -46073,7 +46076,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="F37" sqref="F37:L44"/>
     </sheetView>
   </sheetViews>
@@ -46089,26 +46092,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="str">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="str">
         <f>表紙_外部!D10</f>
         <v>コンビニ弁当情報サイト開発</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="54" t="s">
         <v>2</v>
       </c>
@@ -46837,26 +46840,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="str">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="str">
         <f>表紙_外部!D10</f>
         <v>コンビニ弁当情報サイト開発</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="54" t="s">
         <v>2</v>
       </c>
@@ -47589,26 +47592,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="str">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="str">
         <f>表紙_外部!D10</f>
         <v>コンビニ弁当情報サイト開発</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="54" t="s">
         <v>2</v>
       </c>

--- a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/PM演習_外部設計書_矢吹研A班.xlsx
@@ -2077,13 +2077,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2092,16 +2086,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2113,7 +2110,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -42878,20 +42878,20 @@
       <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="90" t="s">
+      <c r="F7" s="89"/>
+      <c r="G7" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="90" t="s">
+      <c r="H7" s="89"/>
+      <c r="I7" s="88" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
-      <c r="L7" s="92"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="27" t="s">
         <v>22</v>
       </c>
@@ -42913,20 +42913,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="87" t="s">
+      <c r="F8" s="87"/>
+      <c r="G8" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="89"/>
-      <c r="I8" s="87" t="s">
+      <c r="H8" s="87"/>
+      <c r="I8" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="87"/>
       <c r="M8" s="22" t="s">
         <v>25</v>
       </c>
@@ -42949,20 +42949,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="87" t="s">
+      <c r="F9" s="87"/>
+      <c r="G9" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="87" t="s">
+      <c r="H9" s="87"/>
+      <c r="I9" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="87"/>
       <c r="M9" s="22" t="s">
         <v>69</v>
       </c>
@@ -42985,18 +42985,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="87" t="s">
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="87" t="s">
+      <c r="H10" s="87"/>
+      <c r="I10" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="22" t="s">
         <v>69</v>
       </c>
@@ -43019,18 +43019,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="87" t="s">
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="87" t="s">
+      <c r="H11" s="87"/>
+      <c r="I11" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="87"/>
       <c r="M11" s="22" t="s">
         <v>84</v>
       </c>
@@ -43053,20 +43053,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="87" t="s">
+      <c r="F12" s="87"/>
+      <c r="G12" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="87" t="s">
+      <c r="H12" s="87"/>
+      <c r="I12" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="22" t="s">
         <v>25</v>
       </c>
@@ -43089,18 +43089,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="87" t="s">
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="87" t="s">
+      <c r="H13" s="87"/>
+      <c r="I13" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="22" t="s">
         <v>90</v>
       </c>
@@ -43123,20 +43123,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="87" t="s">
+      <c r="F14" s="87"/>
+      <c r="G14" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="87" t="s">
+      <c r="H14" s="87"/>
+      <c r="I14" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="22" t="s">
         <v>68</v>
       </c>
@@ -43159,18 +43159,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="87" t="s">
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="87" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="22" t="s">
         <v>68</v>
       </c>
@@ -43193,14 +43193,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -43217,14 +43217,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -43241,14 +43241,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="87"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -43265,14 +43265,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -43289,14 +43289,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="89"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -43313,14 +43313,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="87"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -43334,14 +43334,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="30" t="s">
@@ -43679,6 +43679,41 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -43695,41 +43730,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -43875,21 +43875,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="90" t="s">
+      <c r="D6" s="93"/>
+      <c r="E6" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="94" t="s">
+      <c r="F6" s="89"/>
+      <c r="G6" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>41</v>
@@ -43901,21 +43901,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="93" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -43925,21 +43925,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96" t="s">
+      <c r="D8" s="94"/>
+      <c r="E8" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="93" t="s">
+      <c r="F8" s="96"/>
+      <c r="G8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -43949,21 +43949,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96" t="s">
+      <c r="D9" s="94"/>
+      <c r="E9" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="93" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -43973,21 +43973,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96" t="s">
+      <c r="D10" s="94"/>
+      <c r="E10" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="93" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -43997,21 +43997,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="93" t="s">
+      <c r="F11" s="96"/>
+      <c r="G11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -44021,15 +44021,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -44039,15 +44039,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -44057,15 +44057,15 @@
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>42</v>
@@ -44077,15 +44077,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -44529,14 +44529,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E8:F8"/>
@@ -44552,16 +44554,14 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/PM演習_外部設計書_矢吹研A班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="732" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2077,7 +2077,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2086,19 +2092,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2110,10 +2113,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4725,16 +4725,162 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>87972</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>48106</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>58379</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>74774</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>674245</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>76814</xdr:rowOff>
+      <xdr:rowOff>117980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5589024" y="6043616"/>
+          <a:ext cx="615866" cy="350110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95655</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>145947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82457</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4743,8 +4889,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2484585" y="5647884"/>
-          <a:ext cx="770310" cy="704676"/>
+          <a:off x="5626300" y="6083709"/>
+          <a:ext cx="770310" cy="391753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4853,11 +4999,201 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>利用者</a:t>
+            <a:t>管理者</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58379</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45181</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>98172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2454992" y="5644181"/>
+          <a:ext cx="770310" cy="391753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>利用者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>336064</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>111917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>58379</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114124</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="1"/>
+          <a:endCxn id="48" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5083201" y="6218671"/>
+          <a:ext cx="505823" cy="2207"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -41936,7 +42272,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="124" zoomScaleNormal="85" zoomScaleSheetLayoutView="124" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="124" zoomScaleNormal="85" zoomScaleSheetLayoutView="124" workbookViewId="0">
       <selection activeCell="F37" sqref="F37:L44"/>
     </sheetView>
   </sheetViews>
@@ -42740,7 +43076,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -42878,20 +43214,20 @@
       <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="88" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="88" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="90" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
-      <c r="L7" s="89"/>
+      <c r="L7" s="92"/>
       <c r="M7" s="27" t="s">
         <v>22</v>
       </c>
@@ -42913,20 +43249,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="86" t="s">
+      <c r="F8" s="89"/>
+      <c r="G8" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86" t="s">
+      <c r="H8" s="89"/>
+      <c r="I8" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="87"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="22" t="s">
         <v>25</v>
       </c>
@@ -42949,20 +43285,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="89"/>
+      <c r="G9" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="89"/>
+      <c r="I9" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="22" t="s">
         <v>69</v>
       </c>
@@ -42985,18 +43321,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="86" t="s">
+      <c r="E10" s="87"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86" t="s">
+      <c r="H10" s="89"/>
+      <c r="I10" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="22" t="s">
         <v>69</v>
       </c>
@@ -43019,18 +43355,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="86" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="86" t="s">
+      <c r="H11" s="89"/>
+      <c r="I11" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="22" t="s">
         <v>84</v>
       </c>
@@ -43053,20 +43389,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="86" t="s">
+      <c r="F12" s="89"/>
+      <c r="G12" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="86" t="s">
+      <c r="H12" s="89"/>
+      <c r="I12" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="22" t="s">
         <v>25</v>
       </c>
@@ -43089,18 +43425,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="86" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="86" t="s">
+      <c r="H13" s="89"/>
+      <c r="I13" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="22" t="s">
         <v>90</v>
       </c>
@@ -43123,20 +43459,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="86" t="s">
+      <c r="F14" s="89"/>
+      <c r="G14" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="87"/>
-      <c r="I14" s="86" t="s">
+      <c r="H14" s="89"/>
+      <c r="I14" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="22" t="s">
         <v>68</v>
       </c>
@@ -43159,18 +43495,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="86" t="s">
+      <c r="E15" s="87"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="86" t="s">
+      <c r="H15" s="89"/>
+      <c r="I15" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="22" t="s">
         <v>68</v>
       </c>
@@ -43193,14 +43529,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -43217,14 +43553,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -43241,14 +43577,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -43265,14 +43601,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -43289,14 +43625,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="86"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -43313,14 +43649,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -43334,14 +43670,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="30" t="s">
@@ -43679,41 +44015,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -43730,6 +44031,41 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -43875,21 +44211,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="88" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="98" t="s">
+      <c r="F6" s="92"/>
+      <c r="G6" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>41</v>
@@ -43901,21 +44237,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95" t="s">
+      <c r="D7" s="95"/>
+      <c r="E7" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -43925,21 +44261,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95" t="s">
+      <c r="D8" s="95"/>
+      <c r="E8" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -43949,21 +44285,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97" t="s">
+      <c r="F9" s="97"/>
+      <c r="G9" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -43973,21 +44309,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95" t="s">
+      <c r="D10" s="95"/>
+      <c r="E10" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97" t="s">
+      <c r="F10" s="97"/>
+      <c r="G10" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -43997,21 +44333,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95" t="s">
+      <c r="D11" s="95"/>
+      <c r="E11" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97" t="s">
+      <c r="F11" s="97"/>
+      <c r="G11" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -44021,15 +44357,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -44039,15 +44375,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -44057,15 +44393,15 @@
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>42</v>
@@ -44077,15 +44413,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -44529,16 +44865,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E8:F8"/>
@@ -44554,14 +44888,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -45328,7 +45664,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="F37" sqref="F37:L44"/>
     </sheetView>
   </sheetViews>

--- a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/PM演習_外部設計書_矢吹研A班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="732" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="732" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -978,37 +978,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>弁当を項目別に表示し、選択した場合その要素を含むデータだけ表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>ベントウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンビニ選択機能</t>
     <rPh sb="4" eb="6">
       <t>センタク</t>
@@ -1342,6 +1311,37 @@
   </si>
   <si>
     <t>低</t>
+  </si>
+  <si>
+    <t>弁当を項目別に表示し、選択した場合その項目を含むデータだけ表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ベントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2077,13 +2077,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2092,16 +2086,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2113,7 +2110,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5363,8 +5363,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7081126" y="1823186"/>
-          <a:ext cx="951508" cy="381992"/>
+          <a:off x="6565374" y="1671079"/>
+          <a:ext cx="881795" cy="353087"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -5884,8 +5884,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2368606" y="5217676"/>
-          <a:ext cx="951509" cy="381992"/>
+          <a:off x="2198614" y="4800250"/>
+          <a:ext cx="880257" cy="354126"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490386" cy="493200"/>
         </a:xfrm>
@@ -19214,7 +19214,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>分割する。選択した要素を含む弁当をファミリーマート、セブンイレブン、ローソンのそれぞれの画面に同時に表示する。</a:t>
+            <a:t>分割する。選択した項目を含む弁当をファミリーマート、セブンイレブン、ローソンのそれぞれの画面に同時に表示する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -42460,7 +42460,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -42472,7 +42472,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -42480,7 +42480,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -42514,7 +42514,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -42534,7 +42534,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -42611,7 +42611,7 @@
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -43077,7 +43077,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="I8" sqref="I8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -43214,20 +43214,20 @@
       <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="90" t="s">
+      <c r="F7" s="89"/>
+      <c r="G7" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="90" t="s">
+      <c r="H7" s="89"/>
+      <c r="I7" s="88" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
-      <c r="L7" s="92"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="27" t="s">
         <v>22</v>
       </c>
@@ -43249,20 +43249,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="87" t="s">
+      <c r="F8" s="87"/>
+      <c r="G8" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="89"/>
-      <c r="I8" s="87" t="s">
-        <v>81</v>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86" t="s">
+        <v>110</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="87"/>
       <c r="M8" s="22" t="s">
         <v>25</v>
       </c>
@@ -43285,25 +43285,25 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="87" t="s">
+      <c r="F9" s="87"/>
+      <c r="G9" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="87" t="s">
+      <c r="H9" s="87"/>
+      <c r="I9" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="87"/>
       <c r="M9" s="22" t="s">
         <v>69</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O9" s="22" t="s">
         <v>78</v>
@@ -43321,18 +43321,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="87" t="s">
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="87" t="s">
-        <v>96</v>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86" t="s">
+        <v>95</v>
       </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="22" t="s">
         <v>69</v>
       </c>
@@ -43355,23 +43355,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="87" t="s">
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="87"/>
+      <c r="I11" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="87" t="s">
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="22" t="s">
+      <c r="N11" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="O11" s="22" t="s">
         <v>78</v>
@@ -43389,20 +43389,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="87"/>
+      <c r="G12" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="87"/>
+      <c r="I12" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="22" t="s">
         <v>25</v>
       </c>
@@ -43425,23 +43425,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="87" t="s">
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="N13" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O13" s="22" t="s">
         <v>26</v>
@@ -43459,20 +43459,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="87" t="s">
+      <c r="F14" s="87"/>
+      <c r="G14" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="87" t="s">
+      <c r="H14" s="87"/>
+      <c r="I14" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="22" t="s">
         <v>68</v>
       </c>
@@ -43495,23 +43495,23 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="87" t="s">
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="87" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="22" t="s">
         <v>68</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>26</v>
@@ -43529,14 +43529,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -43553,14 +43553,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -43577,14 +43577,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="87"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -43601,14 +43601,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -43625,14 +43625,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="89"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -43649,14 +43649,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="87"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -43670,14 +43670,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="30" t="s">
@@ -44015,6 +44015,41 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -44031,41 +44066,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -44211,21 +44211,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="90" t="s">
+      <c r="D6" s="93"/>
+      <c r="E6" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="94" t="s">
+      <c r="F6" s="89"/>
+      <c r="G6" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>41</v>
@@ -44237,21 +44237,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -44261,21 +44261,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96" t="s">
+      <c r="D8" s="94"/>
+      <c r="E8" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="93" t="s">
-        <v>106</v>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97" t="s">
+        <v>105</v>
       </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -44285,21 +44285,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="95" t="s">
-        <v>91</v>
+      <c r="C9" s="94" t="s">
+        <v>90</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96" t="s">
-        <v>93</v>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95" t="s">
+        <v>92</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="93" t="s">
-        <v>104</v>
+      <c r="F9" s="96"/>
+      <c r="G9" s="97" t="s">
+        <v>103</v>
       </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -44309,21 +44309,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="95" t="s">
-        <v>92</v>
+      <c r="C10" s="94" t="s">
+        <v>91</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96" t="s">
-        <v>94</v>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95" t="s">
+        <v>93</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="93" t="s">
-        <v>105</v>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97" t="s">
+        <v>104</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -44333,21 +44333,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="93" t="s">
-        <v>107</v>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97" t="s">
+        <v>106</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -44357,15 +44357,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -44375,15 +44375,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -44393,15 +44393,15 @@
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>42</v>
@@ -44413,15 +44413,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -44695,7 +44695,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -44865,14 +44865,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E8:F8"/>
@@ -44888,16 +44890,14 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -45664,7 +45664,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="F37" sqref="F37:L44"/>
     </sheetView>
   </sheetViews>
@@ -46412,7 +46412,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="F37" sqref="F37:L44"/>
     </sheetView>
   </sheetViews>
